--- a/PortalDays/Berechnung-Kin-Nummer und Portaltage.xlsx
+++ b/PortalDays/Berechnung-Kin-Nummer und Portaltage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Schneider-GitHub\YouTube-Projects\Maya-Kalender\CalculatePortalDays\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Besitzer\Dropbox\PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6047FE-C2A0-4BD1-B8AC-4F5C0FAC5E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746DC3A2-771F-40CE-8CE8-15FA5AD073D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kalender" sheetId="3" r:id="rId1"/>
@@ -132,9 +132,6 @@
     <t>Auch hier gilt: Keine Änderung des Sheets, ansonsten stimmen die Berechnungen nicht mehr.</t>
   </si>
   <si>
-    <t>Die oben aufgeführte Tabelle listet die aufsummierten Tage der Monate. Allerdings gibt hier den Unterschied, dass ab dem Oktober nach dem Tag 260, die die Nummer wieder bei 0 anfängt. Da der Maya-Kalender nur 260 Tage beinhaltet. Für den Februar gilt immer 28 Tage, es gibt hier kein Schaltjahr.</t>
-  </si>
-  <si>
     <t>Falls jemand am 29. Februar Geburtstag hat, so wird die Kin-Nummer vom 28. Februar und vom 1. März verwendet, beide Energien wirken an diesem Tag.</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Kin-Nummern</t>
+  </si>
+  <si>
+    <t>Die oben aufgeführte Tabelle listet die aufsummierten Tage der Monate. Allerdings gibt hier den Unterschied, dass ab dem Oktober nach dem Tag 260, die Nummer wieder bei 0 anfängt. Da der Maya-Kalender nur 260 Tage beinhaltet. Für den Februar gilt immer 28 Tage, es gibt hier kein Schaltjahr.</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30ADB6B0-D7C9-40E6-82F9-A1D8E45D3CDF}">
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39"/>
       <c r="C39"/>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40"/>
       <c r="C40"/>
@@ -4293,7 +4293,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B4:B34 F4:F34 H4:H34 J4:J34 L4:L34 N4:N34 P4:P34 R4:R34 T4:T34 V4:V34 X4:X34 D4:D34</xm:sqref>
+          <xm:sqref>B4:B34 D4:D34 F4:F34 H4:H34 J4:J34 L4:L34 N4:N34 P4:P34 R4:R34 T4:T34 V4:V34 X4:X34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4305,8 +4305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4425,12 +4425,12 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -4453,7 +4453,7 @@
   <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4462,14 +4462,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1">
         <f>Kalender!C1</f>
@@ -4491,7 +4491,7 @@
         <v>2024</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -4513,7 +4513,7 @@
         <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -5777,7 +5777,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
